--- a/vignettes/SF-May4.xlsx
+++ b/vignettes/SF-May4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7F674-D1FF-3F49-A82E-BBCF009B32BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CC4D5A-F7E9-004B-8519-6D7DA9D369BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="9660" yWindow="2040" windowWidth="23580" windowHeight="17440" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
     <sheet name="Hospitilization Data" sheetId="3" r:id="rId3"/>
     <sheet name="Internal" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -777,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1433,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816A416-5B6A-4545-98DF-6AED7BBC6987}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1474,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="4">
-        <v>62.599999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>71</v>
@@ -1493,7 +1499,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="4">
-        <v>62.199999999999996</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,167 +1548,332 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
-        <v>86.5</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
-        <v>43921</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C10" s="4">
-        <v>85</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
-        <v>43922</v>
+        <v>43926</v>
       </c>
       <c r="B11" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4">
-        <v>92.5</v>
+        <v>118.6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="B12" s="4">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4">
-        <v>99.4</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="B13" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4">
-        <v>94</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>43925</v>
+        <v>43929</v>
       </c>
       <c r="B14" s="4">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4">
-        <v>106.5</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>43926</v>
+        <v>43930</v>
       </c>
       <c r="B15" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4">
-        <v>115.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>43927</v>
+        <v>43931</v>
       </c>
       <c r="B16" s="4">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4">
-        <v>126.10000000000001</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>43928</v>
+        <v>43932</v>
       </c>
       <c r="B17" s="4">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4">
-        <v>107.19999999999999</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>43929</v>
+        <v>43933</v>
       </c>
       <c r="B18" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4">
-        <v>104.30000000000001</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="B19" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4">
-        <v>97.1</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="B20" s="4">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4">
-        <v>93.8</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>43932</v>
+        <v>43936</v>
       </c>
       <c r="B21" s="4">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4">
-        <v>107.19999999999999</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>43933</v>
+        <v>43937</v>
       </c>
       <c r="B22" s="4">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4">
-        <v>104.4</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>43934</v>
+        <v>43938</v>
       </c>
       <c r="B23" s="4">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C23" s="4">
-        <v>103.9</v>
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>43939</v>
+      </c>
+      <c r="B24" s="4">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>43940</v>
+      </c>
+      <c r="B25" s="4">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>43941</v>
+      </c>
+      <c r="B26" s="4">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>43942</v>
+      </c>
+      <c r="B27" s="4">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>43943</v>
+      </c>
+      <c r="B28" s="4">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>43944</v>
+      </c>
+      <c r="B29" s="4">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>43945</v>
+      </c>
+      <c r="B30" s="4">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>43946</v>
+      </c>
+      <c r="B31" s="4">
+        <v>85</v>
+      </c>
+      <c r="C31" s="4">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>43947</v>
+      </c>
+      <c r="B32" s="4">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4">
+        <v>111.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>43948</v>
+      </c>
+      <c r="B33" s="4">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>43949</v>
+      </c>
+      <c r="B34" s="4">
+        <v>84</v>
+      </c>
+      <c r="C34" s="4">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>43950</v>
+      </c>
+      <c r="B35" s="4">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>43951</v>
+      </c>
+      <c r="B36" s="4">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B37" s="4">
+        <v>87</v>
+      </c>
+      <c r="C37" s="4">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>43953</v>
+      </c>
+      <c r="B38" s="4">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
